--- a/temp.xlsx
+++ b/temp.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khain\Documents\Projects\CMPE187WysaTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853BB56A-270B-420D-A400-9A8E07AF5ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B55689E-2DEF-43DA-BB5F-A137C5A25396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
-    <sheet name="TestCases1" sheetId="2" r:id="rId2"/>
+    <sheet name="AugmentedTestCases" sheetId="3" r:id="rId2"/>
+    <sheet name="AugmentedTestCases2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
   <si>
     <t>Input</t>
   </si>
@@ -29,109 +30,164 @@
     <t>Expected output</t>
   </si>
   <si>
+    <t>Give me some mindfulness exercises for Asian elders</t>
+  </si>
+  <si>
+    <t>Would you like to try some exercises right now?</t>
+  </si>
+  <si>
+    <t>I want to set some exercise routines as an Latino adult</t>
+  </si>
+  <si>
+    <t>Let's set up exercise routine together</t>
+  </si>
+  <si>
+    <t>This exercise was helpful for me</t>
+  </si>
+  <si>
+    <t>Thanks for your feedback</t>
+  </si>
+  <si>
+    <t>This exercise was not helpful for me</t>
+  </si>
+  <si>
+    <t>I am sorry I will strive to do better</t>
+  </si>
+  <si>
+    <t>I want to reframe thoughts to feel better as a Latino kid</t>
+  </si>
+  <si>
+    <t>Would you like to try some reframe thoughts right now?</t>
+  </si>
+  <si>
+    <t>As a Latino kid, I want to set schedule to reframe thoughts every Wednesday</t>
+  </si>
+  <si>
+    <t>Let's set up reframe thoughts schedule</t>
+  </si>
+  <si>
+    <t>The reframe thought exercise was helpful</t>
+  </si>
+  <si>
+    <t>The reframe thought exercise was not helpful</t>
+  </si>
+  <si>
+    <t>Give me some strength exercises for Asian elders</t>
+  </si>
+  <si>
+    <t>I want to set some strength exercise routines as an Asian elder</t>
+  </si>
+  <si>
+    <t>Would you like to try some exercise routines right now?</t>
+  </si>
+  <si>
+    <t>This strength exercise was helpful for me</t>
+  </si>
+  <si>
+    <t>This strength exercise was not helpful for me</t>
+  </si>
+  <si>
+    <t>Give me some durability exercises for unemployed adult</t>
+  </si>
+  <si>
+    <t>Would you like to set up some routines right now?</t>
+  </si>
+  <si>
+    <t>This mindfulness exercise was helpful for me</t>
+  </si>
+  <si>
+    <t>This mindfulness exercise was not helpful for me</t>
+  </si>
+  <si>
+    <t>Tôi muốn tập thể dục</t>
+  </si>
+  <si>
+    <t>I can only respond in English</t>
+  </si>
+  <si>
+    <t>I want to do physical exercises instead</t>
+  </si>
+  <si>
+    <t>Let's change the topic for now</t>
+  </si>
+  <si>
+    <t>Give some me mindfulness exercises for Asian elders</t>
+  </si>
+  <si>
+    <t>me some exercises for Asian elders</t>
+  </si>
+  <si>
+    <t>Give heedfulness me some mindfulness exercises for Asian elders</t>
+  </si>
+  <si>
+    <t>Afford me some heedfulness exercises for Asian elders</t>
+  </si>
+  <si>
+    <t>Give me some mindfolne88 exercises for Asian eldeks</t>
+  </si>
+  <si>
+    <t>Give me some mindfulness exe3dises for Asian #lders</t>
+  </si>
+  <si>
+    <t>wGive me some mindfulness exercises for A2sian elders</t>
+  </si>
+  <si>
+    <t>Gvie me some mindfulness exercises for Asian eldres</t>
+  </si>
+  <si>
+    <t>Give me som mindfulness exercises for Asian elers</t>
+  </si>
+  <si>
+    <t>I want an reframe thoughts to feel better as to Asian teen</t>
+  </si>
+  <si>
+    <t>want to thoughts to feel better Asian teen</t>
+  </si>
+  <si>
+    <t>I want to reframe lack thoughts to feel better as an Asian teen</t>
+  </si>
+  <si>
+    <t>I need to reframe thoughts to feel well as an Asiatic teen</t>
+  </si>
+  <si>
+    <t>I want to kefkame thoughts to feel bettek as an Asian teen</t>
+  </si>
+  <si>
+    <t>I want to #eBrame thoughts to feel netter as an qsian teen</t>
+  </si>
+  <si>
+    <t>I want to crefra^me thoughts to fee@l better as an Asiadn teen</t>
+  </si>
+  <si>
+    <t>I want to rerfaem tohughst to feel better as an Asina teen</t>
+  </si>
+  <si>
+    <t>I want to reram thoughts to feel bettr as an Asin teen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I understand you want to feel calmer. Would you like to try some reframe thoughts right now?</t>
+  </si>
+  <si>
     <t>Actual output</t>
   </si>
   <si>
-    <t>Similarity score</t>
-  </si>
-  <si>
-    <t>Passed?</t>
-  </si>
-  <si>
-    <t>Give me some mindfulness exercises for Asian elders</t>
-  </si>
-  <si>
-    <t>Would you like to try some exercises right now?</t>
-  </si>
-  <si>
-    <t>I want to set some exercise routines as an Latino adult</t>
-  </si>
-  <si>
-    <t>Let's set up exercise routine together</t>
-  </si>
-  <si>
-    <t>This exercise was helpful for me</t>
-  </si>
-  <si>
-    <t>Thanks for your feedback</t>
-  </si>
-  <si>
-    <t>This exercise was not helpful for me</t>
-  </si>
-  <si>
-    <t>I am sorry I will strive to do better</t>
-  </si>
-  <si>
-    <t>I want to reframe thoughts to feel better as a Latino kid</t>
-  </si>
-  <si>
-    <t>Would you like to try some reframe thoughts right now?</t>
-  </si>
-  <si>
-    <t>As a Latino kid, I want to set schedule to reframe thoughts every Wednesday</t>
-  </si>
-  <si>
-    <t>Let's set up reframe thoughts schedule</t>
-  </si>
-  <si>
-    <t>The reframe thought exercise was helpful</t>
-  </si>
-  <si>
-    <t>The reframe thought exercise was not helpful</t>
-  </si>
-  <si>
-    <t>Give me some strength exercises for Asian elders</t>
-  </si>
-  <si>
-    <t>I want to set some strength exercise routines as an Asian elder</t>
-  </si>
-  <si>
-    <t>Would you like to try some exercise routines right now?</t>
-  </si>
-  <si>
-    <t>This strength exercise was helpful for me</t>
-  </si>
-  <si>
-    <t>This strength exercise was not helpful for me</t>
-  </si>
-  <si>
-    <t>Give me some durability exercises for unemployed adult</t>
-  </si>
-  <si>
-    <t>I want to set routine to do_x000D__x000D_
-mindfulness every Monday as an_x000D__x000D_
-Latino adult</t>
-  </si>
-  <si>
-    <t>Would you like to set up some routines right now?</t>
-  </si>
-  <si>
-    <t>This mindfulness exercise was helpful for me</t>
-  </si>
-  <si>
-    <t>This mindfulness exercise was not helpful for me</t>
-  </si>
-  <si>
-    <t>Tôi muốn tập thể dục</t>
-  </si>
-  <si>
-    <t>I can only respond in English</t>
-  </si>
-  <si>
-    <t>I want to do physical exercises instead</t>
-  </si>
-  <si>
-    <t>Let's change the topic for now</t>
-  </si>
-  <si>
-    <t>ajajja</t>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>I want to set routine to domindfulness every Monday as anLatino adult</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -139,13 +195,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Lato"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -160,8 +241,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,17 +589,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B7:F25"/>
+  <dimension ref="B7:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="74.875" customWidth="1"/>
     <col min="3" max="3" width="68" customWidth="1"/>
+    <col min="4" max="4" width="16.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -519,396 +610,397 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.5">
-      <c r="B8" t="s">
+      <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E9" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.5">
-      <c r="B9" t="s">
+      <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.5">
-      <c r="B10" t="s">
+      <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.5">
-      <c r="B11" t="s">
+      <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.5">
-      <c r="B12" t="s">
+      <c r="C13" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.5">
-      <c r="B13" t="s">
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.5">
-      <c r="B14" t="s">
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.5">
-      <c r="B15" t="s">
+      <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.5">
-      <c r="B16" t="s">
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B17" t="s">
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B18" t="s">
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
         <v>22</v>
       </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B19" t="s">
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B20" t="s">
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B23" t="s">
         <v>24</v>
       </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B21" t="s">
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B22" t="s">
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B23" t="s">
+      <c r="C25" t="s">
         <v>28</v>
       </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" t="s">
-        <v>32</v>
-      </c>
+      <c r="E25" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B7:F25" numberStoredAsText="1"/>
+    <ignoredError sqref="B10:F11 B7:C7 B8:C8 F8 B13:F20 B12 D12:F12 B9:D9 F9 B22:F25 C21:F21" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386F3C8C-F8C7-4152-9C88-85B3248BE6D4}">
+  <dimension ref="B5:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="61.3125" customWidth="1"/>
-    <col min="2" max="2" width="36.875" customWidth="1"/>
-    <col min="3" max="3" width="42.8125" customWidth="1"/>
+    <col min="2" max="2" width="38.125" customWidth="1"/>
+    <col min="3" max="3" width="52.9375" customWidth="1"/>
+    <col min="4" max="4" width="49.0625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
       <c r="C11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B12" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B13" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B14" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B15" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:C19" numberStoredAsText="1"/>
-  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E69450-B44B-49D9-9C35-833D0D10E1BD}">
+  <dimension ref="C4:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="3" max="3" width="54.25" customWidth="1"/>
+    <col min="4" max="4" width="82.25" customWidth="1"/>
+    <col min="5" max="5" width="18.3125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>